--- a/Results/13/Output_Top_10.xlsx
+++ b/Results/13/Output_Top_10.xlsx
@@ -495,10 +495,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>12</v>
+        <v>11.33</v>
       </c>
       <c r="G2" t="n">
-        <v>335.33</v>
+        <v>306.67</v>
       </c>
     </row>
     <row r="3">
@@ -529,7 +529,7 @@
         <v>10</v>
       </c>
       <c r="G3" t="n">
-        <v>686</v>
+        <v>641</v>
       </c>
     </row>
     <row r="4">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G4" t="n">
-        <v>748</v>
+        <v>687</v>
       </c>
     </row>
     <row r="5">
@@ -588,10 +588,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>480</v>
+        <v>446</v>
       </c>
     </row>
     <row r="6">
@@ -622,7 +622,7 @@
         <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>505</v>
+        <v>483</v>
       </c>
     </row>
     <row r="7">
@@ -653,7 +653,7 @@
         <v>10</v>
       </c>
       <c r="G7" t="n">
-        <v>446</v>
+        <v>429</v>
       </c>
     </row>
     <row r="8">
@@ -684,7 +684,7 @@
         <v>12</v>
       </c>
       <c r="G8" t="n">
-        <v>301.5</v>
+        <v>282.5</v>
       </c>
     </row>
     <row r="9">
@@ -715,7 +715,7 @@
         <v>12</v>
       </c>
       <c r="G9" t="n">
-        <v>374</v>
+        <v>345</v>
       </c>
     </row>
     <row r="10">
@@ -743,10 +743,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G10" t="n">
-        <v>677</v>
+        <v>864</v>
       </c>
     </row>
     <row r="11">
@@ -774,10 +774,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G11" t="n">
-        <v>1109</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="12">
@@ -808,7 +808,7 @@
         <v>12</v>
       </c>
       <c r="G12" t="n">
-        <v>413</v>
+        <v>402</v>
       </c>
     </row>
     <row r="13">
@@ -839,7 +839,7 @@
         <v>12</v>
       </c>
       <c r="G13" t="n">
-        <v>414.5</v>
+        <v>398</v>
       </c>
     </row>
     <row r="14">
@@ -870,7 +870,7 @@
         <v>12</v>
       </c>
       <c r="G14" t="n">
-        <v>399</v>
+        <v>381</v>
       </c>
     </row>
     <row r="15">
@@ -901,7 +901,7 @@
         <v>10</v>
       </c>
       <c r="G15" t="n">
-        <v>902</v>
+        <v>869.5</v>
       </c>
     </row>
     <row r="16">
@@ -932,7 +932,7 @@
         <v>10</v>
       </c>
       <c r="G16" t="n">
-        <v>540</v>
+        <v>488</v>
       </c>
     </row>
     <row r="17">
@@ -960,10 +960,10 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G17" t="n">
-        <v>585</v>
+        <v>536</v>
       </c>
     </row>
     <row r="18">
@@ -994,7 +994,7 @@
         <v>10</v>
       </c>
       <c r="G18" t="n">
-        <v>701</v>
+        <v>669</v>
       </c>
     </row>
     <row r="19">
@@ -1025,7 +1025,7 @@
         <v>12</v>
       </c>
       <c r="G19" t="n">
-        <v>341</v>
+        <v>329</v>
       </c>
     </row>
     <row r="20">
@@ -1056,7 +1056,7 @@
         <v>12</v>
       </c>
       <c r="G20" t="n">
-        <v>1011</v>
+        <v>956</v>
       </c>
     </row>
     <row r="21">
@@ -1084,10 +1084,10 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G21" t="n">
-        <v>857</v>
+        <v>774</v>
       </c>
     </row>
   </sheetData>
